--- a/WIP/Deliverable/Report5/VMN_System Test Case_TestRound2_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report5/VMN_System Test Case_TestRound2_v1.0_EN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Romeo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Romeo/Documents/201601JS01/WIP/Deliverable/Report5/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25571,16 +25571,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C32:I32"/>
     <mergeCell ref="C45:I45"/>
     <mergeCell ref="C50:I50"/>
     <mergeCell ref="C56:I56"/>
     <mergeCell ref="C61:I61"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F65:G66 F71:G76 F12:G31 F46:G49 F57:G60 F33:G44 F62:G63 F51:G55 F68:G69">
